--- a/biome_items.xlsx
+++ b/biome_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hình ảnh\group icon\item\sellable - dig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABE72F-7A21-486A-AEE8-3DEB90A57DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF11B13-A3A6-49FF-B127-585442C24B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="91">
   <si>
     <t>Biome</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Mythical</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>Sellable</t>
   </si>
   <si>
@@ -246,6 +243,72 @@
   </si>
   <si>
     <t>Emoji</t>
+  </si>
+  <si>
+    <t>&lt;:ITTrident:1434416117866041455&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITShell:1434416114099683448&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITPenguinFeather:1434416112241737830&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITPearl:1434416110177878138&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITOldScarf:1434416108332388493&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITOldBoot:1434416106067464237&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITJungleTreasureChest:1434416103739621406&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITIceDagger:1434416101642600509&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITGoldenSandcastlePiece:1434416099314765997&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITEnchantedSnowglobe:1434416095342891088&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITCrab:1434416093115715685&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITConeShell:1434416090775027765&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBucketofSand:1434416088762024068&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBlackPearl:1434416086262218784&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBeachTreasureChest:1434416084479512676&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBeachball:1434416082390745108&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITAuroraTreasureChest:1434416080620617920&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITAuroraShard:1434416078062358529&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITArcticQuartz:1434416072655765504&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITNoobPlush:1434423703663284294&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITVoodooPlush:1434423707132104735&gt;</t>
+  </si>
+  <si>
+    <t>Godly</t>
   </si>
 </sst>
 </file>
@@ -621,18 +684,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -968,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -993,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1004,11 +1074,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1091,9 @@
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1032,13 +1104,13 @@
         <v>1000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="21">
         <v>20</v>
@@ -1054,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -1066,10 +1138,10 @@
         <v>2000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="21">
         <v>16</v>
@@ -1085,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>44</v>
@@ -1097,10 +1169,10 @@
         <v>3000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="21">
         <v>14</v>
@@ -1116,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>45</v>
@@ -1128,7 +1200,7 @@
         <v>4500</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="21">
         <v>9</v>
@@ -1144,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>44</v>
@@ -1156,10 +1228,10 @@
         <v>5000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="21">
         <v>13</v>
@@ -1174,7 +1246,9 @@
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1185,10 +1259,10 @@
         <v>9000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="21">
         <v>10</v>
@@ -1204,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>46</v>
@@ -1216,10 +1290,10 @@
         <v>15435</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="21">
         <v>6</v>
@@ -1234,18 +1308,17 @@
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>240</v>
       </c>
-      <c r="F9" s="2">
-        <v>18000</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="21">
         <v>5</v>
@@ -1260,7 +1333,9 @@
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1271,10 +1346,10 @@
         <v>28665</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1289,7 +1364,9 @@
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1300,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J11" s="21">
         <v>0.25</v>
@@ -1319,7 +1396,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
@@ -1331,10 +1408,10 @@
         <v>39690</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="21">
         <v>3.58</v>
@@ -1349,7 +1426,9 @@
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1360,13 +1439,13 @@
         <v>112000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J13" s="21">
         <v>0.42</v>
@@ -1382,7 +1461,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>47</v>
@@ -1394,10 +1473,10 @@
         <v>128000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="21">
         <v>0.6</v>
@@ -1412,21 +1491,20 @@
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="2">
         <v>5200</v>
       </c>
-      <c r="F15" s="2">
-        <v>368000</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="21">
         <v>0.1</v>
@@ -1441,21 +1519,20 @@
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>2800</v>
       </c>
-      <c r="F16" s="2">
-        <v>200000</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J16" s="21">
         <v>0.45</v>
@@ -1470,7 +1547,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>47</v>
@@ -1478,11 +1555,8 @@
       <c r="E17" s="2">
         <v>5200</v>
       </c>
-      <c r="F17" s="2">
-        <v>380000</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="21">
         <v>0.3</v>
@@ -1496,18 +1570,17 @@
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="2">
         <v>5200</v>
       </c>
-      <c r="F18" s="2">
-        <v>380000</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="21">
         <v>0.25</v>
@@ -1521,18 +1594,18 @@
       <c r="B19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="3">
         <v>12000</v>
       </c>
-      <c r="F19" s="3">
-        <v>880000</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1548,7 +1621,9 @@
       <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1559,7 +1634,7 @@
         <v>1000</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1575,7 +1650,9 @@
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
@@ -1586,10 +1663,10 @@
         <v>2000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="21">
         <v>13</v>
@@ -1603,18 +1680,17 @@
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="2">
         <v>75</v>
       </c>
-      <c r="F22" s="2">
-        <v>4500</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" s="21">
         <v>7</v>
@@ -1628,7 +1704,9 @@
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1639,10 +1717,10 @@
         <v>3000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="21">
         <v>10</v>
@@ -1656,7 +1734,9 @@
       <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1667,7 +1747,7 @@
         <v>3000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="21">
         <v>5</v>
@@ -1681,7 +1761,9 @@
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1692,13 +1774,13 @@
         <v>6000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J25" s="21">
         <v>10</v>
@@ -1712,7 +1794,9 @@
       <c r="B26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1723,13 +1807,13 @@
         <v>11025</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J26" s="21">
         <v>7</v>
@@ -1744,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
@@ -1756,10 +1840,10 @@
         <v>15435</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" s="21">
         <v>4.3789999999999996</v>
@@ -1773,7 +1857,9 @@
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
@@ -1784,7 +1870,7 @@
         <v>12000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="21">
         <v>11</v>
@@ -1798,15 +1884,17 @@
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E29" s="2">
         <v>225</v>
       </c>
-      <c r="F29" s="2">
-        <v>15000</v>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J29" s="21">
         <v>12</v>
@@ -1820,21 +1908,20 @@
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
       <c r="G30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J30" s="21">
         <v>0.25</v>
@@ -1849,7 +1936,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>46</v>
@@ -1861,7 +1948,7 @@
         <v>39690</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="21">
         <v>3</v>
@@ -1875,7 +1962,9 @@
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1886,13 +1975,13 @@
         <v>112000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J32" s="21">
         <v>0.42</v>
@@ -1907,7 +1996,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1919,13 +2008,13 @@
         <v>128000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" s="21">
         <v>0.5</v>
@@ -1939,21 +2028,20 @@
       <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="2">
         <v>4800</v>
       </c>
-      <c r="F34" s="2">
-        <v>336000</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34" s="21">
         <v>0.05</v>
@@ -1967,7 +2055,9 @@
       <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1978,13 +2068,13 @@
         <v>448000</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J35" s="21">
         <v>1E-3</v>
@@ -1998,21 +2088,20 @@
       <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="2">
         <v>2400</v>
       </c>
-      <c r="F36" s="2">
-        <v>185220</v>
-      </c>
       <c r="G36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J36" s="21">
         <v>1</v>
@@ -2027,7 +2116,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -2035,11 +2124,8 @@
       <c r="E37" s="2">
         <v>5200</v>
       </c>
-      <c r="F37" s="2">
-        <v>380000</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J37" s="21">
         <v>0.2</v>
@@ -2053,18 +2139,17 @@
       <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="2">
         <v>5200</v>
       </c>
-      <c r="F38" s="2">
-        <v>380000</v>
-      </c>
       <c r="G38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38" s="21">
         <v>0.2</v>
@@ -2078,7 +2163,9 @@
       <c r="B39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>44</v>
       </c>
@@ -2089,10 +2176,10 @@
         <v>2000</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="24">
@@ -2107,7 +2194,9 @@
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>44</v>
       </c>
@@ -2118,10 +2207,10 @@
         <v>3000</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J40" s="21">
         <v>15</v>
@@ -2135,7 +2224,9 @@
       <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2146,7 +2237,7 @@
         <v>3000</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41" s="21">
         <v>13</v>
@@ -2161,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>44</v>
@@ -2173,10 +2264,10 @@
         <v>4000</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J42" s="21">
         <v>12</v>
@@ -2190,7 +2281,9 @@
       <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
@@ -2201,10 +2294,10 @@
         <v>7500</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J43" s="21">
         <v>6</v>
@@ -2219,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>44</v>
@@ -2231,7 +2324,7 @@
         <v>6000</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" s="21">
         <v>9</v>
@@ -2246,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>46</v>
@@ -2258,10 +2351,10 @@
         <v>15435</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J45" s="21">
         <v>3</v>
@@ -2276,7 +2369,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>45</v>
@@ -2288,7 +2381,7 @@
         <v>12000</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J46" s="21">
         <v>10</v>
@@ -2303,7 +2396,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>45</v>
@@ -2315,10 +2408,10 @@
         <v>13500</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J47" s="21">
         <v>8</v>
@@ -2333,7 +2426,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>45</v>
@@ -2345,10 +2438,10 @@
         <v>15000</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J48" s="21">
         <v>5</v>
@@ -2362,21 +2455,20 @@
       <c r="B49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
       </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
       <c r="G49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J49" s="21">
         <v>0.25</v>
@@ -2391,7 +2483,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>46</v>
@@ -2403,13 +2495,13 @@
         <v>39690</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J50" s="21">
-        <v>1.8698999999999999</v>
+        <v>1.0699000000000001</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -2421,7 +2513,7 @@
         <v>34</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>47</v>
@@ -2433,16 +2525,16 @@
         <v>128000</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="J51" s="21">
+        <v>0.8</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -2453,18 +2545,17 @@
       <c r="B52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="D52" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2">
-        <v>4400</v>
-      </c>
-      <c r="F52" s="2">
-        <v>320000</v>
+        <v>66666</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J52" s="21">
         <v>1E-4</v>
@@ -2479,7 +2570,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>47</v>
@@ -2487,11 +2578,8 @@
       <c r="E53" s="2">
         <v>5200</v>
       </c>
-      <c r="F53" s="2">
-        <v>380000</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J53" s="21">
         <v>0.94</v>
@@ -2505,18 +2593,18 @@
       <c r="B54" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="29"/>
+      <c r="C54" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="D54" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E54" s="3">
         <v>5200</v>
       </c>
-      <c r="F54" s="3">
-        <v>380000</v>
-      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -2543,17 +2631,22 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mythical">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Mythical">
       <formula>NOT(ISERROR(SEARCH("Mythical",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Legendary">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Legendary">
       <formula>NOT(ISERROR(SEARCH("Legendary",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Epic">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Epic">
       <formula>NOT(ISERROR(SEARCH("Epic",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Rare">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Rare">
       <formula>NOT(ISERROR(SEARCH("Rare",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Godly">
+      <formula>NOT(ISERROR(SEARCH("Godly",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
